--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf18-Tnfrsf18.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf18-Tnfrsf18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.985277801192497</v>
+        <v>0.1977553333333333</v>
       </c>
       <c r="H2">
-        <v>0.985277801192497</v>
+        <v>0.593266</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1658261216405568</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1658261216405568</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.861473065421084</v>
+        <v>0.8688675</v>
       </c>
       <c r="N2">
-        <v>0.861473065421084</v>
+        <v>1.737735</v>
       </c>
       <c r="O2">
-        <v>0.3422276736481903</v>
+        <v>0.2876230881030516</v>
       </c>
       <c r="P2">
-        <v>0.3422276736481903</v>
+        <v>0.2287602607316837</v>
       </c>
       <c r="Q2">
-        <v>0.8487902876846458</v>
+        <v>0.171823182085</v>
       </c>
       <c r="R2">
-        <v>0.8487902876846458</v>
+        <v>1.03093909251</v>
       </c>
       <c r="S2">
-        <v>0.3422276736481903</v>
+        <v>0.04769542119440923</v>
       </c>
       <c r="T2">
-        <v>0.3422276736481903</v>
+        <v>0.03793442682261768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.985277801192497</v>
+        <v>0.1977553333333333</v>
       </c>
       <c r="H3">
-        <v>0.985277801192497</v>
+        <v>0.593266</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1658261216405568</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1658261216405568</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.468086385532233</v>
+        <v>0.524837</v>
       </c>
       <c r="N3">
-        <v>0.468086385532233</v>
+        <v>1.574511</v>
       </c>
       <c r="O3">
-        <v>0.185951390957052</v>
+        <v>0.1737379274639013</v>
       </c>
       <c r="P3">
-        <v>0.185951390957052</v>
+        <v>0.207273000132301</v>
       </c>
       <c r="Q3">
-        <v>0.4611951247053419</v>
+        <v>0.1037893158806667</v>
       </c>
       <c r="R3">
-        <v>0.4611951247053419</v>
+        <v>0.9341038429259999</v>
       </c>
       <c r="S3">
-        <v>0.185951390957052</v>
+        <v>0.02881028669320714</v>
       </c>
       <c r="T3">
-        <v>0.185951390957052</v>
+        <v>0.03437127773274209</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -661,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.985277801192497</v>
+        <v>0.1977553333333333</v>
       </c>
       <c r="H4">
-        <v>0.985277801192497</v>
+        <v>0.593266</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1658261216405568</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1658261216405568</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.418078496674318</v>
+        <v>0.2588029999999999</v>
       </c>
       <c r="N4">
-        <v>0.418078496674318</v>
+        <v>0.7764089999999999</v>
       </c>
       <c r="O4">
-        <v>0.1660853218309833</v>
+        <v>0.08567211694571848</v>
       </c>
       <c r="P4">
-        <v>0.1660853218309833</v>
+        <v>0.1022086366876571</v>
       </c>
       <c r="Q4">
-        <v>0.4119234619291367</v>
+        <v>0.05117967353266665</v>
       </c>
       <c r="R4">
-        <v>0.4119234619291367</v>
+        <v>0.4606170617939999</v>
       </c>
       <c r="S4">
-        <v>0.1660853218309833</v>
+        <v>0.01420667488584472</v>
       </c>
       <c r="T4">
-        <v>0.1660853218309833</v>
+        <v>0.01694886182008291</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.985277801192497</v>
+        <v>0.1977553333333333</v>
       </c>
       <c r="H5">
-        <v>0.985277801192497</v>
+        <v>0.593266</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1658261216405568</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1658261216405568</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.186686245961517</v>
+        <v>0.574252</v>
       </c>
       <c r="N5">
-        <v>0.186686245961517</v>
+        <v>1.722756</v>
       </c>
       <c r="O5">
-        <v>0.07416273615739231</v>
+        <v>0.1900958818109247</v>
       </c>
       <c r="P5">
-        <v>0.07416273615739231</v>
+        <v>0.2267883835780902</v>
       </c>
       <c r="Q5">
-        <v>0.1839378139338451</v>
+        <v>0.1135613956773333</v>
       </c>
       <c r="R5">
-        <v>0.1839378139338451</v>
+        <v>1.022052561096</v>
       </c>
       <c r="S5">
-        <v>0.07416273615739231</v>
+        <v>0.0315228628205473</v>
       </c>
       <c r="T5">
-        <v>0.07416273615739231</v>
+        <v>0.03760743808188564</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -785,49 +788,483 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.985277801192497</v>
+        <v>0.1977553333333333</v>
       </c>
       <c r="H6">
-        <v>0.985277801192497</v>
+        <v>0.593266</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.1658261216405568</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.1658261216405568</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5829271328090671</v>
+        <v>0.196714</v>
       </c>
       <c r="N6">
-        <v>0.5829271328090671</v>
+        <v>0.5901420000000001</v>
       </c>
       <c r="O6">
-        <v>0.2315728774063819</v>
+        <v>0.06511866096165837</v>
       </c>
       <c r="P6">
-        <v>0.2315728774063819</v>
+        <v>0.07768793158261605</v>
       </c>
       <c r="Q6">
-        <v>0.5743451636695642</v>
+        <v>0.03890124264133334</v>
       </c>
       <c r="R6">
-        <v>0.5743451636695642</v>
+        <v>0.350111183772</v>
       </c>
       <c r="S6">
-        <v>0.2315728774063819</v>
+        <v>0.01079837499369814</v>
       </c>
       <c r="T6">
-        <v>0.2315728774063819</v>
+        <v>0.01288268839262215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1977553333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.593266</v>
+      </c>
+      <c r="I7">
+        <v>0.1658261216405568</v>
+      </c>
+      <c r="J7">
+        <v>0.1658261216405568</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5973809999999999</v>
+      </c>
+      <c r="N7">
+        <v>1.194762</v>
+      </c>
+      <c r="O7">
+        <v>0.1977523247147454</v>
+      </c>
+      <c r="P7">
+        <v>0.157281787287652</v>
+      </c>
+      <c r="Q7">
+        <v>0.118135278782</v>
+      </c>
+      <c r="R7">
+        <v>0.7088116726919999</v>
+      </c>
+      <c r="S7">
+        <v>0.03279250105285026</v>
+      </c>
+      <c r="T7">
+        <v>0.02608142879060636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9947909999999999</v>
+      </c>
+      <c r="H8">
+        <v>2.984373</v>
+      </c>
+      <c r="I8">
+        <v>0.8341738783594431</v>
+      </c>
+      <c r="J8">
+        <v>0.8341738783594432</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.8688675</v>
+      </c>
+      <c r="N8">
+        <v>1.737735</v>
+      </c>
+      <c r="O8">
+        <v>0.2876230881030516</v>
+      </c>
+      <c r="P8">
+        <v>0.2287602607316837</v>
+      </c>
+      <c r="Q8">
+        <v>0.8643415691924999</v>
+      </c>
+      <c r="R8">
+        <v>5.186049415155</v>
+      </c>
+      <c r="S8">
+        <v>0.2399276669086424</v>
+      </c>
+      <c r="T8">
+        <v>0.1908258339090661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9947909999999999</v>
+      </c>
+      <c r="H9">
+        <v>2.984373</v>
+      </c>
+      <c r="I9">
+        <v>0.8341738783594431</v>
+      </c>
+      <c r="J9">
+        <v>0.8341738783594432</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.524837</v>
+      </c>
+      <c r="N9">
+        <v>1.574511</v>
+      </c>
+      <c r="O9">
+        <v>0.1737379274639013</v>
+      </c>
+      <c r="P9">
+        <v>0.207273000132301</v>
+      </c>
+      <c r="Q9">
+        <v>0.5221031240669999</v>
+      </c>
+      <c r="R9">
+        <v>4.698928116603</v>
+      </c>
+      <c r="S9">
+        <v>0.1449276407706942</v>
+      </c>
+      <c r="T9">
+        <v>0.1729017223995589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9947909999999999</v>
+      </c>
+      <c r="H10">
+        <v>2.984373</v>
+      </c>
+      <c r="I10">
+        <v>0.8341738783594431</v>
+      </c>
+      <c r="J10">
+        <v>0.8341738783594432</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2588029999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.7764089999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.08567211694571848</v>
+      </c>
+      <c r="P10">
+        <v>0.1022086366876571</v>
+      </c>
+      <c r="Q10">
+        <v>0.2574548951729999</v>
+      </c>
+      <c r="R10">
+        <v>2.317094056557</v>
+      </c>
+      <c r="S10">
+        <v>0.07146544205987375</v>
+      </c>
+      <c r="T10">
+        <v>0.0852597748675742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9947909999999999</v>
+      </c>
+      <c r="H11">
+        <v>2.984373</v>
+      </c>
+      <c r="I11">
+        <v>0.8341738783594431</v>
+      </c>
+      <c r="J11">
+        <v>0.8341738783594432</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.574252</v>
+      </c>
+      <c r="N11">
+        <v>1.722756</v>
+      </c>
+      <c r="O11">
+        <v>0.1900958818109247</v>
+      </c>
+      <c r="P11">
+        <v>0.2267883835780902</v>
+      </c>
+      <c r="Q11">
+        <v>0.5712607213319999</v>
+      </c>
+      <c r="R11">
+        <v>5.141346491987999</v>
+      </c>
+      <c r="S11">
+        <v>0.1585730189903774</v>
+      </c>
+      <c r="T11">
+        <v>0.1891809454962045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9947909999999999</v>
+      </c>
+      <c r="H12">
+        <v>2.984373</v>
+      </c>
+      <c r="I12">
+        <v>0.8341738783594431</v>
+      </c>
+      <c r="J12">
+        <v>0.8341738783594432</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.196714</v>
+      </c>
+      <c r="N12">
+        <v>0.5901420000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.06511866096165837</v>
+      </c>
+      <c r="P12">
+        <v>0.07768793158261605</v>
+      </c>
+      <c r="Q12">
+        <v>0.195689316774</v>
+      </c>
+      <c r="R12">
+        <v>1.761203850966</v>
+      </c>
+      <c r="S12">
+        <v>0.05432028596796023</v>
+      </c>
+      <c r="T12">
+        <v>0.06480524318999391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9947909999999999</v>
+      </c>
+      <c r="H13">
+        <v>2.984373</v>
+      </c>
+      <c r="I13">
+        <v>0.8341738783594431</v>
+      </c>
+      <c r="J13">
+        <v>0.8341738783594432</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5973809999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.194762</v>
+      </c>
+      <c r="O13">
+        <v>0.1977523247147454</v>
+      </c>
+      <c r="P13">
+        <v>0.157281787287652</v>
+      </c>
+      <c r="Q13">
+        <v>0.5942692423709999</v>
+      </c>
+      <c r="R13">
+        <v>3.565615454225999</v>
+      </c>
+      <c r="S13">
+        <v>0.1649598236618952</v>
+      </c>
+      <c r="T13">
+        <v>0.1312003584970456</v>
       </c>
     </row>
   </sheetData>
